--- a/FinalProject/prototype.xlsx
+++ b/FinalProject/prototype.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>所有系統文字顏色</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>時間需在前，文字在後</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>聊天室名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +177,18 @@
   </si>
   <si>
     <t>只要顯示一次即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間[YY:MM:SS]需在前，文字在後</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若主視窗關閉，其他視窗都要一起關閉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不確定1、2點哪一個做起來比較好，所以讓負責的人自行決定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,13 +301,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>55789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>485935</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>56269</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>192340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -323,8 +331,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6715125" y="1381125"/>
-          <a:ext cx="4038600" cy="4552950"/>
+          <a:off x="6666139" y="1280432"/>
+          <a:ext cx="4025153" cy="4626908"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1037,14 +1045,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66754</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>159043</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>159042</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1092,14 +1100,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381081</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>159043</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>159042</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1595,34 +1603,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U36"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="2" spans="7:21" x14ac:dyDescent="0.25">
       <c r="P2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="7:21" x14ac:dyDescent="0.25">
       <c r="M3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="7:21" x14ac:dyDescent="0.25">
@@ -1644,15 +1657,15 @@
         <v>2</v>
       </c>
       <c r="U5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="7:21" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
         <v>10</v>
-      </c>
-      <c r="O6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="7:21" x14ac:dyDescent="0.25">
@@ -1676,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="R11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="7:21" x14ac:dyDescent="0.25">
@@ -1713,12 +1726,12 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -1729,110 +1742,113 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q22">
         <v>2</v>
       </c>
       <c r="R22" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>29</v>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="Q23">
         <v>3</v>
       </c>
       <c r="R23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
       <c r="Q24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>31</v>
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="C30" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="s">
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1"/>
+    <hyperlink ref="B25" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1842,22 +1858,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H2:H13"/>
+  <dimension ref="H2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/FinalProject/prototype.xlsx
+++ b/FinalProject/prototype.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\GithubDeom\FinalProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="7845"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="19400" windowHeight="7850"/>
   </bookViews>
   <sheets>
     <sheet name="UI介面設定" sheetId="1" r:id="rId1"/>
@@ -195,8 +200,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,15 +233,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -255,15 +251,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,19 +269,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -933,16 +925,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>31857</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>101893</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>602130</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>30630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>24387</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>94423</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -966,8 +958,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8210550" y="6115050"/>
-          <a:ext cx="2095500" cy="866775"/>
+          <a:off x="6115424" y="6746689"/>
+          <a:ext cx="1872610" cy="930381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -988,16 +980,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>607171</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>210111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>85804</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12086</xdr:rowOff>
+      <xdr:colOff>70862</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>79322</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1021,8 +1013,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15782925" y="1609725"/>
-          <a:ext cx="2124075" cy="876300"/>
+          <a:off x="14084112" y="1943287"/>
+          <a:ext cx="1914044" cy="952447"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1359,7 +1351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1394,7 +1386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1605,18 +1597,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="7:21" x14ac:dyDescent="0.4">
       <c r="Q1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="7:21" x14ac:dyDescent="0.4">
       <c r="P2" t="s">
         <v>11</v>
       </c>
@@ -1630,7 +1622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:21" x14ac:dyDescent="0.4">
       <c r="M3" t="s">
         <v>16</v>
       </c>
@@ -1638,7 +1630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:21" x14ac:dyDescent="0.4">
       <c r="G4">
         <v>1</v>
       </c>
@@ -1646,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:21" x14ac:dyDescent="0.4">
       <c r="G5">
         <v>2</v>
       </c>
@@ -1660,7 +1652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:21" x14ac:dyDescent="0.4">
       <c r="K6" t="s">
         <v>9</v>
       </c>
@@ -1668,7 +1660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:21" x14ac:dyDescent="0.4">
       <c r="Q9">
         <v>1</v>
       </c>
@@ -1676,7 +1668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:21" x14ac:dyDescent="0.4">
       <c r="Q10">
         <v>2</v>
       </c>
@@ -1684,7 +1676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:21" x14ac:dyDescent="0.4">
       <c r="Q11">
         <v>3</v>
       </c>
@@ -1692,7 +1684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:21" x14ac:dyDescent="0.4">
       <c r="Q14">
         <v>1</v>
       </c>
@@ -1700,7 +1692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:21" x14ac:dyDescent="0.4">
       <c r="Q15">
         <v>2</v>
       </c>
@@ -1708,7 +1700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="7:21" x14ac:dyDescent="0.4">
       <c r="Q16">
         <v>3</v>
       </c>
@@ -1716,7 +1708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="Q17">
         <v>4</v>
       </c>
@@ -1724,12 +1716,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="F18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1740,7 +1732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1751,7 +1743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
@@ -1762,7 +1754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
       <c r="Q24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1773,11 +1765,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>28</v>
       </c>
       <c r="Q25" s="3"/>
@@ -1786,7 +1778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1797,12 +1789,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1810,7 +1802,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>32</v>
       </c>
@@ -1818,7 +1810,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>34</v>
       </c>
@@ -1829,7 +1821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>36</v>
       </c>
@@ -1837,7 +1829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1847,12 +1839,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1860,23 +1849,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H2:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H14" t="s">
         <v>42</v>
       </c>

--- a/FinalProject/prototype.xlsx
+++ b/FinalProject/prototype.xlsx
@@ -980,16 +980,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>607171</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>210111</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>70862</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>79322</xdr:rowOff>
+      <xdr:colOff>85803</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>116675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1013,7 +1013,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14084112" y="1943287"/>
+          <a:off x="14099053" y="2197287"/>
           <a:ext cx="1914044" cy="952447"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1597,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
